--- a/hardware/manuf/assembly/seqswitch_pnp.xlsx
+++ b/hardware/manuf/assembly/seqswitch_pnp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvirag\Documents\GitHub\VCSequentialSwitch\hardware\manuf\assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A306B51-755B-4565-86C2-EF188EAC3CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5CA19E-1F18-4DA9-9CA5-274F72AEDEA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,7 +766,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1166,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="2">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1387,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="3">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5">
